--- a/mcbbswiki-useredit-202277-QWERTY770.xlsx
+++ b/mcbbswiki-useredit-202277-QWERTY770.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mcbbswiki\MCBBS-Wiki-Editcount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081D6F2-2C3B-4CAB-98F9-2786F0BF8E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8BF63-2481-47EA-8E57-A0D44065D96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1656,11 +1656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
